--- a/updated_metadata.xlsx
+++ b/updated_metadata.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,6 +513,11 @@
           <t>CTD path</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>CTD_path_seabird</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -580,6 +585,11 @@
           <t>C:\Users\cruz\Documents\SENSE\CTD\data\Level1\Forel\20240703_1346_idronaut.txt</t>
         </is>
       </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>2024-07-03T050545 SBE0251267</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -643,6 +653,7 @@
           <t>C:\Users\cruz\Documents\SENSE\CTD\data\Level1\Forel\20240706_1548_idronaut.txt</t>
         </is>
       </c>
+      <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -702,6 +713,7 @@
           <t>C:\Users\cruz\Documents\SENSE\CTD\data\Level1\Forel\20240707_1658_idronaut.txt</t>
         </is>
       </c>
+      <c r="P4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -769,6 +781,7 @@
           <t>C:\Users\cruz\Documents\SENSE\CTD\data\Level1\Forel\20240708_1337_idronaut.txt</t>
         </is>
       </c>
+      <c r="P5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
